--- a/input/non_cricket_input/Non Cricket Input.xlsx
+++ b/input/non_cricket_input/Non Cricket Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://insidemedia-my.sharepoint.com/personal/sachin_saurav_groupm_com/Documents/one_pager_integration/input/non_cricket_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{675D85C3-C74A-4949-9EDC-7687218ED766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40E45588-479D-463F-914A-533E5769AAC9}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{675D85C3-C74A-4949-9EDC-7687218ED766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3228A576-3C5A-4745-B29C-53B7632CE7FC}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{950B6161-1A5D-4D43-A3C9-C1BE96758FAA}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="146">
   <si>
     <t>CY Expected</t>
   </si>
@@ -474,7 +474,10 @@
     <t>yyyymm</t>
   </si>
   <si>
-    <t>DANCE BANGLA DANCE</t>
+    <t>STAR MAA HD</t>
+  </si>
+  <si>
+    <t>BIGG BOSS 8</t>
   </si>
 </sst>
 </file>
@@ -1049,6 +1052,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1087,15 +1099,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1437,8 +1440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13B7B01-38DF-4FE1-BD89-9559162E351C}">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="74" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1449,11 +1452,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="43" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
@@ -1583,10 +1586,10 @@
       <c r="B18" s="38"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="B19" s="42"/>
+      <c r="B19" s="45"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="30" t="s">
@@ -1625,10 +1628,10 @@
       <c r="B24" s="38"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="42"/>
+      <c r="B25" s="45"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="30" t="s">
@@ -1701,7 +1704,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="55" t="s">
+      <c r="A36" s="42" t="s">
         <v>19</v>
       </c>
       <c r="B36" s="29" t="s">
@@ -1709,7 +1712,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="56" t="s">
+      <c r="A37" s="43" t="s">
         <v>20</v>
       </c>
       <c r="B37" s="31" t="s">
@@ -1721,7 +1724,7 @@
         <v>131</v>
       </c>
       <c r="B38" s="19"/>
-      <c r="C38" s="43" t="s">
+      <c r="C38" s="46" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1730,35 +1733,35 @@
         <v>133</v>
       </c>
       <c r="B39" s="19"/>
-      <c r="C39" s="43"/>
+      <c r="C39" s="46"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="30" t="s">
         <v>134</v>
       </c>
       <c r="B40" s="19"/>
-      <c r="C40" s="43"/>
+      <c r="C40" s="46"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="30" t="s">
         <v>132</v>
       </c>
       <c r="B41" s="19"/>
-      <c r="C41" s="43"/>
+      <c r="C41" s="46"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="30" t="s">
         <v>135</v>
       </c>
       <c r="B42" s="19"/>
-      <c r="C42" s="43"/>
+      <c r="C42" s="46"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="30" t="s">
         <v>136</v>
       </c>
       <c r="B43" s="19"/>
-      <c r="C43" s="43"/>
+      <c r="C43" s="46"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="41" t="s">
@@ -1766,7 +1769,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="57" t="s">
+      <c r="A45" s="44" t="s">
         <v>141</v>
       </c>
       <c r="B45">
@@ -1967,7 +1970,7 @@
   <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="64" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2006,31 +2009,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="47" t="str">
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="50" t="str">
         <f>'Property Details'!B31</f>
         <v>Co Powered by</v>
       </c>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="51" t="s">
+      <c r="P1" s="51"/>
+      <c r="Q1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="53"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="56"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="G2" s="21"/>
@@ -2077,10 +2080,10 @@
       <c r="N3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="49" t="s">
+      <c r="O3" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="50"/>
+      <c r="P3" s="53"/>
       <c r="Q3" s="10" t="s">
         <v>12</v>
       </c>
@@ -2208,7 +2211,7 @@
         <v>44</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>78</v>
@@ -2442,17 +2445,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
